--- a/9软件需求规格说明书/用例评分表/PRD-G17-游客用例评分表.xlsx
+++ b/9软件需求规格说明书/用例评分表/PRD-G17-游客用例评分表.xlsx
@@ -62,6 +62,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,11 +193,11 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,12 +506,13 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -560,25 +564,30 @@
         <v>7</v>
       </c>
       <c r="E2" s="5">
-        <v>15</v>
+        <f>C2+D2</f>
+        <v>16</v>
       </c>
       <c r="F2" s="6">
-        <v>0.45450000000000002</v>
+        <f>E2/41</f>
+        <v>0.3902439024390244</v>
       </c>
       <c r="G2" s="5">
         <v>6</v>
       </c>
       <c r="H2" s="6">
-        <v>0.54549999999999998</v>
+        <f>G2/13</f>
+        <v>0.46153846153846156</v>
       </c>
       <c r="I2" s="5">
         <v>4</v>
       </c>
       <c r="J2" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="K2" s="5">
-        <v>1.64</v>
+        <f>I2/I5</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K2" s="8">
+        <f>0.2*F2/(H2+J2)</f>
+        <v>9.8190401258851312E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -595,25 +604,30 @@
         <v>6</v>
       </c>
       <c r="E3" s="5">
-        <v>18</v>
+        <f t="shared" ref="E3:E4" si="0">C3+D3</f>
+        <v>15</v>
       </c>
       <c r="F3" s="6">
-        <v>0.54549999999999998</v>
+        <f t="shared" ref="F3:F4" si="1">E3/41</f>
+        <v>0.36585365853658536</v>
       </c>
       <c r="G3" s="5">
         <v>5</v>
       </c>
       <c r="H3" s="6">
-        <v>0.45450000000000002</v>
+        <f t="shared" ref="H3:H4" si="2">G3/13</f>
+        <v>0.38461538461538464</v>
       </c>
       <c r="I3" s="5">
         <v>4</v>
       </c>
       <c r="J3" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1.73</v>
+        <f>I3/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K4" si="3">0.2*F3/(H3+J3)</f>
+        <v>0.1019163763066202</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -623,42 +637,49 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
       <c r="E4" s="5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F4" s="6">
-        <v>1.61E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.1951219512195122</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
       </c>
       <c r="H4" s="6">
-        <v>8.2000000000000007E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.15384615384615385</v>
       </c>
       <c r="I4" s="5">
         <v>4</v>
       </c>
       <c r="J4" s="6">
-        <v>1.66E-2</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1.33</v>
+        <f>I4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" si="3"/>
+        <v>8.0102695763799761E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5">
+        <f>SUM(C2:C4)</f>
         <v>22</v>
       </c>
       <c r="D5" s="5">
-        <v>19</v>
+        <f>SUM(D2:D4)</f>
+        <v>17</v>
       </c>
       <c r="E5" s="5">
         <v>41</v>
